--- a/data/outputs/management_altmetric/47.xlsx
+++ b/data/outputs/management_altmetric/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE74"/>
+  <dimension ref="A1:CF74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1013,6 +1018,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1270,6 +1278,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1527,6 +1538,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1784,6 +1798,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2025,6 +2042,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2272,6 +2292,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2517,6 +2540,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2758,6 +2784,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3001,6 +3030,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3236,6 +3268,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3471,6 +3506,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3714,6 +3752,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3965,6 +4006,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4200,6 +4244,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4441,6 +4488,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4662,6 +4712,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4889,6 +4942,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5138,6 +5194,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5377,6 +5436,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5614,6 +5676,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5845,6 +5910,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6086,6 +6154,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6326,6 +6397,9 @@
       </c>
       <c r="CE24" t="n">
         <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -6546,6 +6620,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6781,6 +6858,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7018,6 +7098,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7263,6 +7346,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7500,6 +7586,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7745,6 +7834,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7988,6 +8080,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8225,6 +8320,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8470,6 +8568,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8707,6 +8808,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8942,6 +9046,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9185,6 +9292,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9424,6 +9534,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9661,6 +9774,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9896,6 +10012,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10131,6 +10250,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10362,6 +10484,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10597,6 +10722,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10828,6 +10956,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11071,6 +11202,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11306,6 +11440,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11545,6 +11682,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11784,6 +11924,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12025,6 +12168,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12260,6 +12406,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12507,6 +12656,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12742,6 +12894,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12977,6 +13132,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13224,6 +13382,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13461,6 +13622,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13702,6 +13866,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13943,6 +14110,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14172,6 +14342,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14413,6 +14586,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14658,6 +14834,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14877,6 +15056,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15116,6 +15298,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15351,6 +15536,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15588,6 +15776,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15815,6 +16006,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16050,6 +16244,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16285,6 +16482,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16520,6 +16720,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16759,6 +16962,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16994,6 +17200,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17229,6 +17438,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17468,6 +17680,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17703,6 +17918,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17946,6 +18164,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18185,6 +18406,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
